--- a/braph2genesis/---pipelines---/structural NN/example data ST (MRI)/classification/xls/ST_group1.xlsx
+++ b/braph2genesis/---pipelines---/structural NN/example data ST (MRI)/classification/xls/ST_group1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gunet-my.sharepoint.com/personal/yu-wei_chang_gu_se/Documents/ywc/projects/braph_example_data/Braph_ExampleData/Structural_NN_Classification_ExampleData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hejyu\Documents\GitHub\BRAPH-2-Matlab\braph2genesis\---pipelines---\structural NN\example data ST (MRI)\classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_714D046FC91B6124A36AD21F8FBF09554C7EA989" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{219A3FD4-B529-4395-9E1C-A7D12C3A3516}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2349CCFD-1196-4A81-95BC-B96392667ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1859,8 +1859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BS101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BL1" workbookViewId="0">
-      <selection activeCell="BU3" sqref="BU3"/>
+    <sheetView tabSelected="1" topLeftCell="BF1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
